--- a/public/export/ketquadanhgiagiaovien.xlsx
+++ b/public/export/ketquadanhgiagiaovien.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>BẢNG TỔNG HỢP KẾT QUẢ ĐÁNH GIÁ GIÁO VIÊN CỦA CƠ SỞ GIÁO DỤC</t>
   </si>
@@ -50,19 +50,37 @@
     <t>Chưa đạt (CĐ) ; Đạt (Đ) ; Khá (Kh) ; Tốt ( T)</t>
   </si>
   <si>
+    <t>Tổ Ngoại ngữ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị T.Huệ</t>
+  </si>
+  <si>
+    <t>Kh</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Lê Thị TSen</t>
+  </si>
+  <si>
+    <t>Tống Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Sơn</t>
+  </si>
+  <si>
+    <t>Mai Thị Phương Thu</t>
+  </si>
+  <si>
     <t>Tổ Ngữ văn</t>
   </si>
   <si>
     <t>Lê Công Thơ</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Đinh Thị Mỹ Hiệp</t>
-  </si>
-  <si>
-    <t>Kh</t>
   </si>
   <si>
     <t>Nguyễn Thị Thao</t>
@@ -589,10 +607,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A24" sqref="A24:S24"/>
+      <selection activeCell="A30" sqref="A30:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -627,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="14">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -773,7 +791,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>13</v>
@@ -809,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>13</v>
@@ -823,56 +841,56 @@
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -884,52 +902,52 @@
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -937,56 +955,56 @@
         <v>4</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -994,182 +1012,148 @@
         <v>5</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="16">
-        <v>6</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>13</v>
@@ -1208,10 +1192,10 @@
         <v>13</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S22" s="16" t="s">
         <v>13</v>
@@ -1219,116 +1203,458 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="16">
+        <v>10</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="16">
+        <v>11</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="16">
+        <v>12</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="16">
+        <v>13</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="16">
+        <v>14</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="16">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>15</v>
+      <c r="B30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1347,11 +1673,17 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A20:S20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
